--- a/Team-Data/2015-16/4-2-2015-16.xlsx
+++ b/Team-Data/2015-16/4-2-2015-16.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
         <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.592</v>
+        <v>0.584</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -693,16 +760,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O2" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P2" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
         <v>0.786</v>
@@ -717,7 +784,7 @@
         <v>41.9</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>14.8</v>
@@ -726,34 +793,34 @@
         <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y2" t="n">
         <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA2" t="n">
         <v>18.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>14</v>
@@ -765,25 +832,25 @@
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
         <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -816,10 +883,10 @@
         <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>0.573</v>
+        <v>0.579</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,7 +933,7 @@
         <v>39.3</v>
       </c>
       <c r="J3" t="n">
-        <v>89.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.439</v>
@@ -881,13 +948,13 @@
         <v>0.335</v>
       </c>
       <c r="O3" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="R3" t="n">
         <v>11.8</v>
@@ -899,7 +966,7 @@
         <v>45.2</v>
       </c>
       <c r="U3" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="V3" t="n">
         <v>13.9</v>
@@ -923,31 +990,31 @@
         <v>105.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
         <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>12</v>
@@ -965,13 +1032,13 @@
         <v>14</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="n">
         <v>3</v>
       </c>
       <c r="AS3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -980,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -1030,43 +1097,43 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" t="n">
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
-        <v>0.28</v>
+        <v>0.276</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J4" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O4" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q4" t="n">
         <v>0.763</v>
@@ -1087,7 +1154,7 @@
         <v>14.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X4" t="n">
         <v>3.9</v>
@@ -1105,10 +1172,10 @@
         <v>98.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>27</v>
@@ -1126,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>12</v>
@@ -1141,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
         <v>27</v>
@@ -1153,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>23</v>
@@ -1168,10 +1235,10 @@
         <v>19</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ4" t="n">
         <v>2</v>
@@ -1180,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -1212,46 +1279,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
         <v>44</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.595</v>
+        <v>0.587</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J5" t="n">
         <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="M5" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
         <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R5" t="n">
         <v>8.9</v>
@@ -1263,16 +1330,16 @@
         <v>44.1</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V5" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
         <v>5.6</v>
@@ -1281,16 +1348,16 @@
         <v>18.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
         <v>8</v>
@@ -1311,10 +1378,10 @@
         <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM5" t="n">
         <v>4</v>
@@ -1323,22 +1390,22 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>11</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
         <v>4</v>
       </c>
       <c r="AT5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1356,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
-        <v>0.486</v>
+        <v>0.507</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J6" t="n">
-        <v>88.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
         <v>7.8</v>
@@ -1424,31 +1491,31 @@
         <v>21.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O6" t="n">
         <v>16.3</v>
       </c>
       <c r="P6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="T6" t="n">
-        <v>46.8</v>
+        <v>46.7</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="V6" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W6" t="n">
         <v>5.9</v>
@@ -1457,31 +1524,31 @@
         <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
         <v>18.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.8</v>
+        <v>-1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
@@ -1493,16 +1560,16 @@
         <v>2</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>25</v>
@@ -1511,10 +1578,10 @@
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR6" t="n">
         <v>8</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>2</v>
@@ -1526,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1547,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="BC6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.716</v>
+        <v>0.711</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,7 +1661,7 @@
         <v>38.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.458</v>
@@ -1609,28 +1676,28 @@
         <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="T7" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W7" t="n">
         <v>6.8</v>
@@ -1639,22 +1706,22 @@
         <v>3.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1666,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
@@ -1678,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="AL7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM7" t="n">
         <v>3</v>
@@ -1687,25 +1754,25 @@
         <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR7" t="n">
         <v>11</v>
       </c>
       <c r="AS7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU7" t="n">
         <v>13</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>14</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1717,7 +1784,7 @@
         <v>28</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
         <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
@@ -1779,40 +1846,40 @@
         <v>84.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L8" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O8" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P8" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="R8" t="n">
         <v>9.1</v>
       </c>
       <c r="S8" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T8" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W8" t="n">
         <v>6.8</v>
@@ -1824,22 +1891,22 @@
         <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>16</v>
@@ -1854,7 +1921,7 @@
         <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>20</v>
@@ -1863,16 +1930,16 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,10 +1948,10 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>15</v>
@@ -1899,7 +1966,7 @@
         <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
         <v>8</v>
@@ -1908,10 +1975,10 @@
         <v>8</v>
       </c>
       <c r="BB8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -1943,13 +2010,13 @@
         <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>0.403</v>
+        <v>0.416</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,7 +2025,7 @@
         <v>37.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K9" t="n">
         <v>0.442</v>
@@ -1970,13 +2037,13 @@
         <v>23.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" t="n">
         <v>0.769</v>
@@ -1985,16 +2052,16 @@
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U9" t="n">
         <v>22.6</v>
       </c>
       <c r="V9" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.4</v>
@@ -2003,10 +2070,10 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA9" t="n">
         <v>21.1</v>
@@ -2015,31 +2082,31 @@
         <v>102.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3</v>
+        <v>-2.6</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
       </c>
       <c r="AE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="n">
         <v>22</v>
       </c>
-      <c r="AF9" t="n">
-        <v>24</v>
-      </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>20</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,10 +2115,10 @@
         <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>10</v>
@@ -2066,10 +2133,10 @@
         <v>19</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
         <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>0.52</v>
+        <v>0.526</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2140,37 +2207,37 @@
         <v>38.2</v>
       </c>
       <c r="J10" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L10" t="n">
         <v>8.9</v>
       </c>
       <c r="M10" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="N10" t="n">
         <v>0.34</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
         <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.659</v>
+        <v>0.663</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
         <v>33.8</v>
       </c>
       <c r="T10" t="n">
-        <v>46.3</v>
+        <v>46.4</v>
       </c>
       <c r="U10" t="n">
         <v>19.5</v>
@@ -2179,10 +2246,10 @@
         <v>13.6</v>
       </c>
       <c r="W10" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y10" t="n">
         <v>4.4</v>
@@ -2191,46 +2258,46 @@
         <v>19.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB10" t="n">
         <v>102</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
         <v>22</v>
@@ -2245,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
@@ -2263,7 +2330,7 @@
         <v>30</v>
       </c>
       <c r="AY10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.893</v>
+        <v>0.895</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="J11" t="n">
-        <v>87.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L11" t="n">
         <v>13.1</v>
@@ -2334,7 +2401,7 @@
         <v>31.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.417</v>
+        <v>0.416</v>
       </c>
       <c r="O11" t="n">
         <v>17</v>
@@ -2343,16 +2410,16 @@
         <v>22.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R11" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S11" t="n">
         <v>36.2</v>
       </c>
       <c r="T11" t="n">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="U11" t="n">
         <v>29</v>
@@ -2370,19 +2437,19 @@
         <v>4.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB11" t="n">
         <v>115</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2418,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>18</v>
@@ -2436,22 +2503,22 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>8</v>
       </c>
       <c r="AX11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -2486,40 +2553,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
         <v>37</v>
       </c>
       <c r="F12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="n">
-        <v>0.493</v>
+        <v>0.487</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L12" t="n">
         <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P12" t="n">
         <v>29.9</v>
@@ -2531,7 +2598,7 @@
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
         <v>43.1</v>
@@ -2543,10 +2610,10 @@
         <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5</v>
@@ -2555,25 +2622,25 @@
         <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
@@ -2582,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,16 +2670,16 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
         <v>27</v>
       </c>
       <c r="AT12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -2671,25 +2738,25 @@
         <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
-        <v>0.533</v>
+        <v>0.52</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J13" t="n">
         <v>85.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L13" t="n">
         <v>7.9</v>
@@ -2701,10 +2768,10 @@
         <v>0.347</v>
       </c>
       <c r="O13" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q13" t="n">
         <v>0.761</v>
@@ -2713,16 +2780,16 @@
         <v>10.4</v>
       </c>
       <c r="S13" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T13" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>9.1</v>
@@ -2734,67 +2801,67 @@
         <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
         <v>20.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AU13" t="n">
         <v>23</v>
@@ -2809,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ13" t="n">
         <v>11</v>
@@ -2818,10 +2885,10 @@
         <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -2850,34 +2917,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
         <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>0.622</v>
+        <v>0.627</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L14" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N14" t="n">
         <v>0.362</v>
@@ -2889,7 +2956,7 @@
         <v>26.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.698</v>
+        <v>0.697</v>
       </c>
       <c r="R14" t="n">
         <v>8.9</v>
@@ -2901,7 +2968,7 @@
         <v>41.9</v>
       </c>
       <c r="U14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V14" t="n">
         <v>13</v>
@@ -2910,25 +2977,25 @@
         <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y14" t="n">
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA14" t="n">
         <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="AC14" t="n">
         <v>3.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2943,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -2970,16 +3037,16 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT14" t="n">
         <v>25</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" t="n">
-        <v>0.216</v>
+        <v>0.213</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3059,28 +3126,28 @@
         <v>7.8</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="R15" t="n">
         <v>10.7</v>
       </c>
       <c r="S15" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U15" t="n">
         <v>18.1</v>
@@ -3098,19 +3165,19 @@
         <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
@@ -3128,13 +3195,13 @@
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>13</v>
@@ -3155,10 +3222,10 @@
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3173,13 +3240,13 @@
         <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
       </c>
       <c r="BA15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
         <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>0.547</v>
+        <v>0.539</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J16" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L16" t="n">
         <v>6.1</v>
       </c>
       <c r="M16" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O16" t="n">
         <v>19.6</v>
@@ -3265,7 +3332,7 @@
         <v>41.5</v>
       </c>
       <c r="U16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V16" t="n">
         <v>13.3</v>
@@ -3274,10 +3341,10 @@
         <v>8.9</v>
       </c>
       <c r="X16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
         <v>21.9</v>
@@ -3286,13 +3353,13 @@
         <v>21.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.3</v>
+        <v>-1.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3313,19 +3380,19 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
         <v>7</v>
@@ -3340,7 +3407,7 @@
         <v>30</v>
       </c>
       <c r="AT16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
@@ -3355,19 +3422,19 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA16" t="n">
         <v>9</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -3399,13 +3466,13 @@
         <v>75</v>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.573</v>
+        <v>0.587</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,40 +3481,40 @@
         <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M17" t="n">
         <v>18</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
         <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.745</v>
       </c>
       <c r="R17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="T17" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U17" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V17" t="n">
         <v>14.3</v>
@@ -3462,55 +3529,55 @@
         <v>4.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA17" t="n">
         <v>19.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF17" t="n">
         <v>7</v>
       </c>
-      <c r="AE17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9</v>
-      </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL17" t="n">
         <v>27</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>28</v>
       </c>
       <c r="AM17" t="n">
         <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>24</v>
@@ -3522,7 +3589,7 @@
         <v>6</v>
       </c>
       <c r="AT17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU17" t="n">
         <v>22</v>
@@ -3531,7 +3598,7 @@
         <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX17" t="n">
         <v>1</v>
@@ -3540,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
@@ -3549,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="n">
-        <v>0.427</v>
+        <v>0.421</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J18" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K18" t="n">
-        <v>0.469</v>
+        <v>0.467</v>
       </c>
       <c r="L18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P18" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.744</v>
+        <v>0.747</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
         <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W18" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
         <v>99.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>20</v>
@@ -3677,43 +3744,43 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>30</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3722,13 +3789,13 @@
         <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>51</v>
       </c>
       <c r="G19" t="n">
-        <v>0.32</v>
+        <v>0.329</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3781,7 +3848,7 @@
         <v>81.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3790,31 +3857,31 @@
         <v>16.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O19" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P19" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R19" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S19" t="n">
         <v>31.5</v>
       </c>
       <c r="T19" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U19" t="n">
         <v>23</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
         <v>7.8</v>
@@ -3826,19 +3893,19 @@
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3856,31 +3923,31 @@
         <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
         <v>8</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM19" t="n">
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
@@ -3889,13 +3956,13 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -3904,13 +3971,13 @@
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G20" t="n">
-        <v>0.384</v>
+        <v>0.373</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
         <v>86.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L20" t="n">
         <v>8.5</v>
@@ -3972,37 +4039,37 @@
         <v>23.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O20" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
         <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.9</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
         <v>7.8</v>
       </c>
       <c r="X20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y20" t="n">
         <v>5.1</v>
@@ -4011,22 +4078,22 @@
         <v>20.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3</v>
+        <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
@@ -4050,10 +4117,10 @@
         <v>15</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
@@ -4065,10 +4132,10 @@
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU20" t="n">
         <v>18</v>
@@ -4077,13 +4144,13 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
         <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ20" t="n">
         <v>20</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
         <v>46</v>
       </c>
       <c r="G21" t="n">
-        <v>0.395</v>
+        <v>0.403</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.44</v>
@@ -4154,34 +4221,34 @@
         <v>21.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O21" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R21" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S21" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T21" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V21" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X21" t="n">
         <v>5.6</v>
@@ -4190,31 +4257,31 @@
         <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.9</v>
+        <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>25</v>
@@ -4223,7 +4290,7 @@
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>24</v>
@@ -4232,10 +4299,10 @@
         <v>23</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
         <v>25</v>
@@ -4244,13 +4311,13 @@
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4268,13 +4335,13 @@
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
         <v>27</v>
       </c>
       <c r="BB21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" t="n">
         <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4345,7 +4412,7 @@
         <v>25</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R22" t="n">
         <v>12.9</v>
@@ -4357,7 +4424,7 @@
         <v>48.4</v>
       </c>
       <c r="U22" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V22" t="n">
         <v>15.7</v>
@@ -4372,10 +4439,10 @@
         <v>4.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
         <v>110.1</v>
@@ -4384,7 +4451,7 @@
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>4</v>
@@ -4402,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4411,19 +4478,19 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN22" t="n">
         <v>18</v>
       </c>
-      <c r="AN22" t="n">
-        <v>17</v>
-      </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP22" t="n">
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
@@ -4444,16 +4511,16 @@
         <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
         <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
-        <v>0.427</v>
+        <v>0.421</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
@@ -4506,46 +4573,46 @@
         <v>39.4</v>
       </c>
       <c r="J23" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M23" t="n">
         <v>22.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O23" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q23" t="n">
         <v>0.761</v>
       </c>
       <c r="R23" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U23" t="n">
         <v>23.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W23" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
         <v>5</v>
@@ -4560,13 +4627,13 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC23" t="n">
         <v>-1.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
@@ -4584,13 +4651,13 @@
         <v>5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>21</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR23" t="n">
         <v>16</v>
@@ -4614,7 +4681,7 @@
         <v>17</v>
       </c>
       <c r="AT23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU23" t="n">
         <v>7</v>
@@ -4632,13 +4699,13 @@
         <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -4694,13 +4761,13 @@
         <v>0.432</v>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M24" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O24" t="n">
         <v>15.6</v>
@@ -4709,31 +4776,31 @@
         <v>22.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="R24" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S24" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V24" t="n">
         <v>16.6</v>
       </c>
       <c r="W24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z24" t="n">
         <v>21.9</v>
@@ -4742,13 +4809,13 @@
         <v>19.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.4</v>
+        <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4760,25 +4827,25 @@
         <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM24" t="n">
         <v>9</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -4787,10 +4854,10 @@
         <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,25 +4866,25 @@
         <v>29</v>
       </c>
       <c r="AU24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
         <v>29</v>
       </c>
       <c r="AW24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ24" t="n">
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" t="n">
         <v>20</v>
       </c>
       <c r="F25" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G25" t="n">
-        <v>0.267</v>
+        <v>0.263</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
         <v>85.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L25" t="n">
         <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O25" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R25" t="n">
         <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T25" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V25" t="n">
         <v>17</v>
       </c>
       <c r="W25" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X25" t="n">
         <v>3.8</v>
@@ -4918,19 +4985,19 @@
         <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB25" t="n">
         <v>100.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>28</v>
@@ -4948,7 +5015,7 @@
         <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>28</v>
@@ -4963,22 +5030,22 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ25" t="n">
         <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU25" t="n">
         <v>25</v>
@@ -4993,7 +5060,7 @@
         <v>27</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ25" t="n">
         <v>30</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5119,7 @@
         <v>38.5</v>
       </c>
       <c r="J26" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.448</v>
@@ -5061,28 +5128,28 @@
         <v>10.5</v>
       </c>
       <c r="M26" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O26" t="n">
         <v>17.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R26" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S26" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T26" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U26" t="n">
         <v>21.2</v>
@@ -5097,7 +5164,7 @@
         <v>4.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z26" t="n">
         <v>21.9</v>
@@ -5106,25 +5173,25 @@
         <v>19.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="AC26" t="n">
         <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>11</v>
@@ -5142,13 +5209,13 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
         <v>18</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>20</v>
@@ -5163,13 +5230,13 @@
         <v>5</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
         <v>17</v>
       </c>
       <c r="AW26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX26" t="n">
         <v>18</v>
@@ -5178,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="AZ26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -5219,13 +5286,13 @@
         <v>76</v>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" t="n">
-        <v>0.408</v>
+        <v>0.395</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5234,31 +5301,31 @@
         <v>40.1</v>
       </c>
       <c r="J27" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.465</v>
       </c>
       <c r="L27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O27" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="R27" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S27" t="n">
         <v>33.8</v>
@@ -5270,7 +5337,7 @@
         <v>24.7</v>
       </c>
       <c r="V27" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W27" t="n">
         <v>8.9</v>
@@ -5282,49 +5349,49 @@
         <v>5.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA27" t="n">
         <v>22.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK27" t="n">
         <v>6</v>
       </c>
       <c r="AL27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>22</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
@@ -5342,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
         <v>4</v>
@@ -5357,13 +5424,13 @@
         <v>21</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>13</v>
       </c>
       <c r="BA27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB27" t="n">
         <v>3</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -5401,22 +5468,22 @@
         <v>75</v>
       </c>
       <c r="E28" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.853</v>
+        <v>0.84</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
@@ -5425,31 +5492,31 @@
         <v>7.1</v>
       </c>
       <c r="M28" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O28" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.804</v>
+        <v>0.803</v>
       </c>
       <c r="R28" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>34.8</v>
       </c>
       <c r="T28" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="U28" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V28" t="n">
         <v>13.2</v>
@@ -5458,7 +5525,7 @@
         <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y28" t="n">
         <v>3.8</v>
@@ -5473,10 +5540,10 @@
         <v>104.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK28" t="n">
         <v>1</v>
@@ -5512,31 +5579,31 @@
         <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>2</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>3</v>
       </c>
       <c r="AV28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW28" t="n">
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -5583,13 +5650,13 @@
         <v>75</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.667</v>
+        <v>0.68</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5601,7 +5668,7 @@
         <v>81.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L29" t="n">
         <v>8.6</v>
@@ -5613,34 +5680,34 @@
         <v>0.37</v>
       </c>
       <c r="O29" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="P29" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R29" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S29" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>43.4</v>
       </c>
       <c r="U29" t="n">
         <v>18.6</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
         <v>7.8</v>
       </c>
       <c r="X29" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y29" t="n">
         <v>5.3</v>
@@ -5649,16 +5716,16 @@
         <v>19.8</v>
       </c>
       <c r="AA29" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD29" t="n">
         <v>22</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
@@ -5670,22 +5737,22 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN29" t="n">
         <v>3</v>
@@ -5694,16 +5761,16 @@
         <v>2</v>
       </c>
       <c r="AP29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>18</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT29" t="n">
         <v>18</v>
@@ -5712,7 +5779,7 @@
         <v>29</v>
       </c>
       <c r="AV29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW29" t="n">
         <v>14</v>
@@ -5721,16 +5788,16 @@
         <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" t="n">
         <v>38</v>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48.7</v>
@@ -5786,16 +5853,16 @@
         <v>0.447</v>
       </c>
       <c r="L30" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M30" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O30" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P30" t="n">
         <v>23.3</v>
@@ -5804,13 +5871,13 @@
         <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
         <v>32.4</v>
       </c>
       <c r="T30" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U30" t="n">
         <v>18.9</v>
@@ -5819,7 +5886,7 @@
         <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X30" t="n">
         <v>5.2</v>
@@ -5828,28 +5895,28 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA30" t="n">
         <v>20</v>
       </c>
       <c r="AB30" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5861,7 +5928,7 @@
         <v>30</v>
       </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>16</v>
@@ -5870,16 +5937,16 @@
         <v>16</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5888,16 +5955,16 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -5909,7 +5976,7 @@
         <v>14</v>
       </c>
       <c r="BA30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" t="n">
         <v>39</v>
       </c>
       <c r="G31" t="n">
-        <v>0.48</v>
+        <v>0.487</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J31" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M31" t="n">
         <v>24.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O31" t="n">
         <v>16.4</v>
@@ -5983,19 +6050,19 @@
         <v>22.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S31" t="n">
         <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U31" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V31" t="n">
         <v>14.5</v>
@@ -6004,46 +6071,46 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="AC31" t="n">
         <v>-1</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH31" t="n">
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6055,10 +6122,10 @@
         <v>8</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
@@ -6082,13 +6149,13 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-2-2015-16</t>
+          <t>2016-04-02</t>
         </is>
       </c>
     </row>
